--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -32,13 +32,36 @@
     <t>生效日期</t>
   </si>
   <si>
-    <t>总重量(KG)</t>
-  </si>
-  <si>
-    <t>总运费(RMB)</t>
+    <t>总净重(KG)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总运费</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(RMB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>运费</t>
     </r>
     <r>
@@ -89,13 +112,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1076,7 +1099,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1098,19 +1121,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -1099,13 +1099,15 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
-    <col min="3" max="5" width="14.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="14.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="14.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="20.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="16.7272727272727" customWidth="1"/>
@@ -1142,14 +1144,14 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>3156.66</v>
+        <v>253.79</v>
       </c>
       <c r="C2" s="4">
-        <v>6339.01</v>
+        <v>452</v>
       </c>
       <c r="D2" s="4">
         <f>C2/B2</f>
-        <v>2.00813834876103</v>
+        <v>1.78100003940266</v>
       </c>
       <c r="E2" s="5">
         <v>0.05</v>
@@ -1161,8 +1163,8 @@
         <v>1.1</v>
       </c>
       <c r="H2" s="5">
-        <f>1/7.18</f>
-        <v>0.139275766016713</v>
+        <f>1/7.1745</f>
+        <v>0.139382535368318</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="3:4">

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>生效日期</t>
+    <t>编号</t>
   </si>
   <si>
     <t>总净重(KG)</t>
@@ -87,7 +87,7 @@
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
-    <t>2025.4.1</t>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -750,6 +750,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,7 +1100,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1140,7 +1141,7 @@
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>编号</t>
   </si>
@@ -87,7 +87,19 @@
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
+    <t>公司信息</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>世博數碼</t>
+  </si>
+  <si>
+    <t>世界銀行</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +137,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -605,137 +623,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -750,6 +768,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,13 +1118,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="14.6363636363636" customWidth="1"/>
@@ -1114,7 +1135,7 @@
     <col min="8" max="8" width="16.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+    <row r="1" ht="14.5" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,10 +1160,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
+    <row r="2" ht="14.5" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>253.79</v>
@@ -1164,8 +1191,13 @@
         <v>1.1</v>
       </c>
       <c r="H2" s="5">
-        <f>1/7.1745</f>
-        <v>0.139382535368318</v>
+        <v>0.1394</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="3:4">

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="policy" sheetId="1" r:id="rId1"/>
+    <sheet name="Policy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,79 +27,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>采购装箱单编号</t>
+  </si>
+  <si>
+    <t>CXCJ202501220l</t>
   </si>
   <si>
     <t>总净重(KG)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总运费</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(RMB)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运费</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(KG)</t>
-    </r>
+    <t>总运费(RMB)</t>
+  </si>
+  <si>
+    <t>运费单价(RMB/KG)</t>
   </si>
   <si>
     <t>加价率</t>
   </si>
   <si>
+    <t>保险系数</t>
+  </si>
+  <si>
     <t>保险费率</t>
   </si>
   <si>
-    <t>保险系数</t>
-  </si>
-  <si>
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
-    <t>公司信息</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>世博數碼</t>
-  </si>
-  <si>
-    <t>世界銀行</t>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+  </si>
+  <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>811020101280058376</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>China Citic Bank Shenzhen Branch</t>
+  </si>
+  <si>
+    <t>Bank Address</t>
+  </si>
+  <si>
+    <t>8F, Citic Security Tower, Zhongxin Futian Dist. Futian Shenzhen China</t>
+  </si>
+  <si>
+    <t>SWIFT No.</t>
+  </si>
+  <si>
+    <t>CIBKCNBJ518</t>
   </si>
 </sst>
 </file>
@@ -111,28 +107,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,9 +117,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -290,12 +274,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -607,7 +603,9 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,155 +621,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -824,7 +822,221 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -834,7 +1046,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,39 +1056,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,6 +1120,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -942,6 +1155,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,160 +1167,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1117,92 +1302,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="14.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="20.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="16.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="19.3545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" ht="16.5" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>253.79</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B4" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="3">
+        <f>B4/B3</f>
+        <v>1.78100003940266</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="B7" s="2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="2">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>253.79</v>
-      </c>
-      <c r="C2" s="4">
-        <v>452</v>
-      </c>
-      <c r="D2" s="4">
-        <f>C2/B2</f>
-        <v>1.78100003940266</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.0005</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="B9" s="2">
         <v>0.1394</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="3:4">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -2,12 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Policy" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,18 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>采购装箱单编号</t>
-  </si>
-  <si>
-    <t>CXCJ202501220l</t>
+    <t>编号</t>
   </si>
   <si>
     <t>总净重(KG)</t>
@@ -47,87 +40,41 @@
     <t>总运费(RMB)</t>
   </si>
   <si>
-    <t>运费单价(RMB/KG)</t>
+    <t>运费(KG)</t>
   </si>
   <si>
     <t>加价率</t>
   </si>
   <si>
-    <t>保险系数</t>
+    <t>保险费率</t>
   </si>
   <si>
-    <t>保险费率</t>
+    <t>保险系数</t>
   </si>
   <si>
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
-  </si>
-  <si>
-    <t>公司地址</t>
-  </si>
-  <si>
-    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
-  </si>
-  <si>
-    <t>Account number</t>
-  </si>
-  <si>
-    <t>811020101280058376</t>
-  </si>
-  <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>China Citic Bank Shenzhen Branch</t>
-  </si>
-  <si>
-    <t>Bank Address</t>
-  </si>
-  <si>
-    <t>8F, Citic Security Tower, Zhongxin Futian Dist. Futian Shenzhen China</t>
-  </si>
-  <si>
-    <t>SWIFT No.</t>
-  </si>
-  <si>
-    <t>CIBKCNBJ518</t>
+    <t>CXCI2025012201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -274,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,18 +230,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,27 +415,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,52 +541,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,96 +604,75 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,221 +727,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1046,9 +737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1062,31 +753,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -1158,66 +849,40 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1231,20 +896,38 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1302,154 +985,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B18"/>
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="19.3545454545455" customWidth="1"/>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="16.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>253.79</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <f>B4/B3</f>
-        <v>1.78100003940266</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3156.66</v>
+      </c>
+      <c r="C2">
+        <v>6339.01</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>2.00813834876103</v>
+      </c>
+      <c r="E2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="F2">
+        <v>0.0005</v>
+      </c>
+      <c r="G2">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.0005</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.1394</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="H2">
+        <v>0.139122692</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>编号</t>
   </si>
@@ -55,7 +55,43 @@
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
+    <t>采购公司</t>
+  </si>
+  <si>
+    <t>采购公司地址</t>
+  </si>
+  <si>
+    <t>银行账号</t>
+  </si>
+  <si>
+    <t>银行名称</t>
+  </si>
+  <si>
+    <t>银行地址</t>
+  </si>
+  <si>
+    <t>SWIFT No</t>
+  </si>
+  <si>
     <t>CXCI2025012201</t>
+  </si>
+  <si>
+    <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+  </si>
+  <si>
+    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+  </si>
+  <si>
+    <t>8110301012800584376</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China citic bank shenzhen branch</t>
+  </si>
+  <si>
+    <t>8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
+  </si>
+  <si>
+    <t>CIBKCNBJ518</t>
   </si>
 </sst>
 </file>
@@ -415,12 +451,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,7 +598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,34 +610,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,10 +722,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -986,20 +1042,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="16.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,10 +1081,28 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="322" spans="1:14">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>3156.66</v>
@@ -1050,6 +1125,24 @@
       </c>
       <c r="H2">
         <v>0.139122692</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -2,14 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Policy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>采购装箱单编号</t>
+  </si>
+  <si>
+    <t>CXCJ202501220l</t>
   </si>
   <si>
     <t>总净重(KG)</t>
@@ -40,55 +47,52 @@
     <t>总运费(RMB)</t>
   </si>
   <si>
-    <t>运费(KG)</t>
+    <t>运费单价(RMB/KG)</t>
   </si>
   <si>
     <t>加价率</t>
   </si>
   <si>
+    <t>保险系数</t>
+  </si>
+  <si>
     <t>保险费率</t>
   </si>
   <si>
-    <t>保险系数</t>
-  </si>
-  <si>
     <t>汇率(RMB/美元)</t>
   </si>
   <si>
-    <t>采购公司</t>
-  </si>
-  <si>
-    <t>采购公司地址</t>
-  </si>
-  <si>
-    <t>银行账号</t>
-  </si>
-  <si>
-    <t>银行名称</t>
-  </si>
-  <si>
-    <t>银行地址</t>
-  </si>
-  <si>
-    <t>SWIFT No</t>
-  </si>
-  <si>
-    <t>CXCI2025012201</t>
+    <t>公司名称</t>
   </si>
   <si>
     <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
   </si>
   <si>
-    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
-  </si>
-  <si>
-    <t>8110301012800584376</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> China citic bank shenzhen branch</t>
-  </si>
-  <si>
-    <t>8F,Citic security tower, zhongxin 4road, futian dist. futian shenzhen  china</t>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>811020101280058376</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>China Citic Bank Shenzhen Branch</t>
+  </si>
+  <si>
+    <t>Bank Address</t>
+  </si>
+  <si>
+    <t>8F, Citic Security Tower, Zhongxin Futian Dist. Futian Shenzhen China</t>
+  </si>
+  <si>
+    <t>SWIFT No.</t>
   </si>
   <si>
     <t>CIBKCNBJ518</t>
@@ -104,13 +108,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -257,12 +273,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -592,145 +614,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,7 +812,226 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -793,9 +1041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -809,31 +1057,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -905,40 +1153,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -952,38 +1226,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1041,147 +1297,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="16.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
+    <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="176.363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" ht="16.5" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3">
+        <v>3156.66</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4">
+        <v>6339.01</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5">
+        <v>2.00813834876103</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B7">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B8">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B9">
+        <v>0.139122692302341</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="322" spans="1:14">
-      <c r="A2" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>3156.66</v>
-      </c>
-      <c r="C2">
-        <v>6339.01</v>
-      </c>
-      <c r="D2">
-        <f>C2/B2</f>
-        <v>2.00813834876103</v>
-      </c>
-      <c r="E2">
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>0.0005</v>
-      </c>
-      <c r="G2">
-        <v>1.1</v>
-      </c>
-      <c r="H2">
-        <v>0.139122692</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="12" ht="16.5" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="13" ht="16.5" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="14" ht="16.5" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>字段</t>
   </si>
@@ -1298,13 +1298,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
     <col min="2" max="2" width="176.363636363636" customWidth="1"/>
@@ -1382,19 +1382,25 @@
         <v>0.139122692302341</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:2">
+    <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:2">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>字段</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>CIBKCNBJ518</t>
+  </si>
+  <si>
+    <t>采购总价(不含税)</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1437,8 +1440,12 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>198183.35</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
       <c r="A17" s="3"/>

--- a/testfiles/policy.xlsx
+++ b/testfiles/policy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="22540" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Policy" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>采购装箱单编号</t>
   </si>
   <si>
-    <t>CXCJ202501220l</t>
+    <t>CXCI2025012201</t>
   </si>
   <si>
     <t>总净重(KG)</t>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="2"/>
